--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Pdgfb-Art1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,43 +525,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4108750991181</v>
+        <v>49.195614</v>
       </c>
       <c r="H2">
-        <v>48.4108750991181</v>
+        <v>147.586842</v>
       </c>
       <c r="I2">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="J2">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956616</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.14914000757986</v>
+        <v>0.1748566666666667</v>
       </c>
       <c r="N2">
-        <v>0.14914000757986</v>
+        <v>0.52457</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>7.21999827923013</v>
+        <v>8.602181078659999</v>
       </c>
       <c r="R2">
-        <v>7.21999827923013</v>
+        <v>77.41962970793999</v>
       </c>
       <c r="S2">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956617</v>
       </c>
       <c r="T2">
-        <v>0.9085127098602098</v>
+        <v>0.8724243622956616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,43 +587,43 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.85613439842071</v>
+        <v>0.05229733333333333</v>
       </c>
       <c r="H3">
-        <v>1.85613439842071</v>
+        <v>0.156892</v>
       </c>
       <c r="I3">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="J3">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.14914000757986</v>
+        <v>0.1748566666666667</v>
       </c>
       <c r="N3">
-        <v>0.14914000757986</v>
+        <v>0.52457</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.2768238982497036</v>
+        <v>0.009144537382222222</v>
       </c>
       <c r="R3">
-        <v>0.2768238982497036</v>
+        <v>0.08230083644</v>
       </c>
       <c r="S3">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
       <c r="T3">
-        <v>0.03483353045614887</v>
+        <v>0.0009274295810821058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,43 +649,43 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.2275454016719</v>
+        <v>1.896931</v>
       </c>
       <c r="H4">
-        <v>1.2275454016719</v>
+        <v>5.690793</v>
       </c>
       <c r="I4">
-        <v>0.02303698491436057</v>
+        <v>0.03363976345521111</v>
       </c>
       <c r="J4">
-        <v>0.02303698491436057</v>
+        <v>0.0336397634552111</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.14914000757986</v>
+        <v>0.1748566666666667</v>
       </c>
       <c r="N4">
-        <v>0.14914000757986</v>
+        <v>0.52457</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1830761305099695</v>
+        <v>0.3316910315566667</v>
       </c>
       <c r="R4">
-        <v>0.1830761305099695</v>
+        <v>2.98521928401</v>
       </c>
       <c r="S4">
-        <v>0.02303698491436057</v>
+        <v>0.03363976345521111</v>
       </c>
       <c r="T4">
-        <v>0.02303698491436057</v>
+        <v>0.0336397634552111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,123 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.047190333333333</v>
+      </c>
+      <c r="H5">
+        <v>9.141570999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="J5">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.1748566666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.52457</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.5328215443855555</v>
+      </c>
+      <c r="R5">
+        <v>4.79539389947</v>
+      </c>
+      <c r="S5">
+        <v>0.05403821331210212</v>
+      </c>
+      <c r="T5">
+        <v>0.05403821331210212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.79129853322718</v>
-      </c>
-      <c r="H5">
-        <v>1.79129853322718</v>
-      </c>
-      <c r="I5">
-        <v>0.03361677476928094</v>
-      </c>
-      <c r="J5">
-        <v>0.03361677476928094</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.14914000757986</v>
-      </c>
-      <c r="N5">
-        <v>0.14914000757986</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.2671542768232937</v>
-      </c>
-      <c r="R5">
-        <v>0.2671542768232937</v>
-      </c>
-      <c r="S5">
-        <v>0.03361677476928094</v>
-      </c>
-      <c r="T5">
-        <v>0.03361677476928094</v>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.197513666666667</v>
+      </c>
+      <c r="H6">
+        <v>6.592541</v>
+      </c>
+      <c r="I6">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="J6">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1748566666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.52457</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0.3842499147077778</v>
+      </c>
+      <c r="R6">
+        <v>3.45824923237</v>
+      </c>
+      <c r="S6">
+        <v>0.03897023135594298</v>
+      </c>
+      <c r="T6">
+        <v>0.03897023135594298</v>
       </c>
     </row>
   </sheetData>
